--- a/Empresa/projeto_com_api/TestePrincipal.xlsx
+++ b/Empresa/projeto_com_api/TestePrincipal.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\projeto_com_api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE3CCF-51BB-4F67-87BF-1C59E3D31205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -262,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,22 +321,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +419,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,6 +471,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,295 +708,625 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>891771336</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>476828961</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>964410117</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1004069259</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>535843992</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>787548332</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>576881279</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>973244895</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>949103489</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>988765454</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2">
+        <v>891771336</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2">
+        <v>476828961</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2">
+        <v>964410117</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1004069259</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2">
+        <v>535843992</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2">
+        <v>787548332</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2">
+        <v>576881279</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2">
+        <v>973244895</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2">
+        <v>949103489</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2">
+        <v>988765454</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
